--- a/Data/Bilançolar/ARENA.xlsx
+++ b/Data/Bilançolar/ARENA.xlsx
@@ -15430,7 +15430,7 @@
         <v>17034520</v>
       </c>
       <c r="C86" t="n">
-        <v>19605477</v>
+        <v>10331054</v>
       </c>
       <c r="D86" t="n">
         <v>40833690</v>
@@ -15955,7 +15955,7 @@
         <v>165635150</v>
       </c>
       <c r="C89" t="n">
-        <v>91075620</v>
+        <v>81801197</v>
       </c>
       <c r="D89" t="n">
         <v>207344508</v>
@@ -16305,7 +16305,7 @@
         <v>37885954</v>
       </c>
       <c r="C91" t="n">
-        <v>0</v>
+        <v>12414457</v>
       </c>
       <c r="D91" t="n">
         <v>0</v>
@@ -17005,7 +17005,7 @@
         <v>203521104</v>
       </c>
       <c r="C95" t="n">
-        <v>91075620</v>
+        <v>94215654</v>
       </c>
       <c r="D95" t="n">
         <v>207344508</v>
@@ -17180,7 +17180,7 @@
         <v>0</v>
       </c>
       <c r="C96" t="n">
-        <v>-42839930</v>
+        <v>0</v>
       </c>
       <c r="D96" t="n">
         <v>0</v>
@@ -17355,7 +17355,7 @@
         <v>-115675674</v>
       </c>
       <c r="C97" t="n">
-        <v>0</v>
+        <v>-45979964</v>
       </c>
       <c r="D97" t="n">
         <v>-97860392</v>
@@ -17530,7 +17530,7 @@
         <v>37885954</v>
       </c>
       <c r="C98" t="n">
-        <v>0</v>
+        <v>12414457</v>
       </c>
       <c r="D98" t="n">
         <v>0</v>
@@ -20855,7 +20855,7 @@
         <v>-115675674</v>
       </c>
       <c r="C117" t="n">
-        <v>0</v>
+        <v>-45979964</v>
       </c>
       <c r="D117" t="n">
         <v>-97860392</v>
